--- a/ws365_template_zero_content/EventReview/Receipts/EventReview.xlsx
+++ b/ws365_template_zero_content/EventReview/Receipts/EventReview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VULCAN\Documents\data\ExcelCoq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VULCAN\Documents\data\ExcelCoq\Template\EventReview\Receipts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5AF02D-8A37-43AA-B966-1A1847DE1394}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21EBECA-6C57-4304-B28B-E6B5A28A518C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Column Labels</t>
   </si>
@@ -106,9 +106,6 @@
     <t>EventReviewWithReceipts</t>
   </si>
   <si>
-    <t>OOO1337777@anthroplogic.com</t>
-  </si>
-  <si>
     <t>WorkSchool365 EventReview: Calendar Preview - Times are UTC (month/day/year 24:00)</t>
   </si>
   <si>
@@ -125,6 +122,12 @@
   </si>
   <si>
     <t>Receipt</t>
+  </si>
+  <si>
+    <t>https://workschool365.com</t>
+  </si>
+  <si>
+    <t>admin@anthroplogic.onmicrosoft.com</t>
   </si>
 </sst>
 </file>
@@ -182,7 +185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,9 +224,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -855,7 +858,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="OOO1337777@anthroplogic.com" refreshedDate="44307.438663657405" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="1" xr:uid="{7C092FF9-0B56-4B82-BAE2-1F23C570F402}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="OOO1337777@anthroplogic.com" refreshedDate="44407.78359791667" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="1" xr:uid="{7C092FF9-0B56-4B82-BAE2-1F23C570F402}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" sheet="SimpleView"/>
   </cacheSource>
@@ -943,7 +946,7 @@
     <cacheField name="PayAmount" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
-    <cacheField name="Receipt" numFmtId="165">
+    <cacheField name="Receipt" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
   </cacheFields>
@@ -1512,9 +1515,7 @@
     <sortCondition descending="1" ref="T27"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="16" xr3:uid="{83138EFB-239E-49CC-9FF4-437C48AEC7A7}" name="ID">
-      <calculatedColumnFormula>HYPERLINK("https://anthroplogic.sharepoint.com/sites/cycle1/EventReview/EventReviewWithReceipts.docx?d=w899c67b9479541619b47b0bbb0a33843", 2)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="16" xr3:uid="{83138EFB-239E-49CC-9FF4-437C48AEC7A7}" name="ID"/>
     <tableColumn id="1" xr3:uid="{2C57E86E-EF20-4DB0-849D-881E3F9C388B}" name="Title"/>
     <tableColumn id="2" xr3:uid="{D1AC5EFA-9E03-4D73-B731-AF9434596344}" name="StartDate" dataDxfId="41"/>
     <tableColumn id="21" xr3:uid="{1F51AEB4-18DA-4F94-9B13-FC2ECC9C4FB0}" name="StartDateY" dataDxfId="40">
@@ -1537,9 +1538,7 @@
       <calculatedColumnFormula>"[OOO1337777@outlook.com]"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="27" xr3:uid="{42CAEB18-8058-4628-8647-32CE75FE0E66}" name="Predecessors" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{B6521277-0A8B-432D-9F73-275213438BB9}" name="Author">
-      <calculatedColumnFormula>"OOO1337777@outlook.com"</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="10" xr3:uid="{B6521277-0A8B-432D-9F73-275213438BB9}" name="Author" dataCellStyle="Hyperlink"/>
     <tableColumn id="11" xr3:uid="{CC9D1992-D0DA-4DEF-A9A6-B838FF029B8C}" name="Modified" dataDxfId="33"/>
     <tableColumn id="20" xr3:uid="{251B2B46-710C-4D9F-886C-A7E8B4CDEDED}" name="PayAmount" dataDxfId="32"/>
     <tableColumn id="3" xr3:uid="{4E1ABF22-5415-4895-BC14-9390D1387FFC}" name="Receipt" dataCellStyle="Normal"/>
@@ -1884,22 +1883,22 @@
     <col min="32" max="32" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>23</v>
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1928,21 +1927,21 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>18</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>1</v>
       </c>
       <c r="C10" s="11">
@@ -1975,7 +1974,7 @@
         <v>14</v>
       </c>
       <c r="Z27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="s">
         <v>15</v>
@@ -1993,13 +1992,12 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R28" s="10">
-        <f>HYPERLINK("https://anthroplogic.sharepoint.com/sites/cycle1/EventReview/EventReviewWithReceipts.docx?d=w899c67b9479541619b47b0bbb0a33843", 2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S28" t="s">
         <v>21</v>
@@ -2034,30 +2032,34 @@
       <c r="AB28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AC28" t="s">
-        <v>22</v>
+      <c r="AC28" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="AD28" s="8">
         <v>44278.939583333333</v>
       </c>
       <c r="AE28" s="9">
         <v>1</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{856C1B45-CDCB-45FA-AE73-5BAF9C29C7F3}"/>
+    <hyperlink ref="AC28" r:id="rId3" xr:uid="{2E848D7B-6130-43A5-86F5-EA0FA260FC9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId6"/>
+        <x14:slicer r:id="rId7"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -2065,6 +2067,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaskImage xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b" xsi:nil="true"/>
+    <TaskLink xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </TaskLink>
+    <StartDate xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b">2020-10-21T22:33:06+00:00</StartDate>
+    <PercentComplete xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b">0</PercentComplete>
+    <Predecessors xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b"/>
+    <AssignedTo xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </AssignedTo>
+    <DueDate xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b" xsi:nil="true"/>
+    <PayAmount xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b" xsi:nil="true"/>
+    <PayNowAction xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b">false</PayNowAction>
+    <StatusDescription xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005369F1471E41214590BB2F197803A4E1" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="528efd755df3c65e1ce33a273b9a5375">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2857aa2e-a0cf-41d3-87df-ae9fb046669b" xmlns:ns3="093d544b-5f21-4855-945c-28e935d55e7e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c0c1ba6e7c5a61fd7f61c56f9fb54a37" ns2:_="" ns3:_="">
     <xsd:import namespace="2857aa2e-a0cf-41d3-87df-ae9fb046669b"/>
@@ -2343,42 +2380,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaskImage xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b" xsi:nil="true"/>
-    <TaskLink xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </TaskLink>
-    <StartDate xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b">2020-10-21T22:33:06+00:00</StartDate>
-    <PercentComplete xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b">0</PercentComplete>
-    <Predecessors xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b"/>
-    <AssignedTo xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </AssignedTo>
-    <DueDate xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b" xsi:nil="true"/>
-    <PayAmount xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b" xsi:nil="true"/>
-    <PayNowAction xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b">false</PayNowAction>
-    <StatusDescription xmlns="2857aa2e-a0cf-41d3-87df-ae9fb046669b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CE8402E-A78C-4174-8BAB-D652C626A814}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE077EC-DA21-440B-9569-1D023BE8A632}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2857aa2e-a0cf-41d3-87df-ae9fb046669b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36701BE8-C87B-44D4-9F70-44C4D827E4C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2395,22 +2415,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFE077EC-DA21-440B-9569-1D023BE8A632}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2857aa2e-a0cf-41d3-87df-ae9fb046669b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CE8402E-A78C-4174-8BAB-D652C626A814}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>